--- a/海关统计数据汇总.xlsx
+++ b/海关统计数据汇总.xlsx
@@ -1201,7 +1201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1904,6 +1904,49 @@
       </c>
       <c r="M19" t="n">
         <v>0.04034789869354416</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3939099.797099996</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.0285426966504938</v>
+      </c>
+      <c r="D20" t="n">
+        <v>28350864.216</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.03813571396607318</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2914879.941799998</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.06475928277018894</v>
+      </c>
+      <c r="H20" t="n">
+        <v>21618939.7088</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.03514497942502848</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1024219.8553</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.09177973920341298</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6731924.5072</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.04785813284547946</v>
       </c>
     </row>
   </sheetData>
@@ -1917,7 +1960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2620,6 +2663,49 @@
       </c>
       <c r="M19" t="n">
         <v>0.1623963116350322</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8942821.705200002</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2162906205160331</v>
+      </c>
+      <c r="D20" t="n">
+        <v>59810684.07080001</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2031415980955018</v>
+      </c>
+      <c r="F20" t="n">
+        <v>7774597.428199999</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2083787868046469</v>
+      </c>
+      <c r="H20" t="n">
+        <v>53111170.4147</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.206114335098879</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1168224.277000001</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.27170361866487</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6699513.6561</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.1800835072464051</v>
       </c>
     </row>
   </sheetData>
@@ -2633,7 +2719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3336,6 +3422,49 @@
       </c>
       <c r="M19" t="n">
         <v>0.4404769680727185</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>356033.8417000002</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.03984746131165684</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2698698.4058</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2283790325795219</v>
+      </c>
+      <c r="F20" t="n">
+        <v>306749.6035</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.09258057873725389</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2339105.0071</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2002954602207057</v>
+      </c>
+      <c r="J20" t="n">
+        <v>49284.23820000002</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.5042395166993727</v>
+      </c>
+      <c r="L20" t="n">
+        <v>359593.3987</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.4488944415765801</v>
       </c>
     </row>
   </sheetData>
@@ -3349,7 +3478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4052,6 +4181,49 @@
       </c>
       <c r="M19" t="n">
         <v>-0.01894634271636775</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>12120659.72139999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.03578740973043115</v>
+      </c>
+      <c r="D20" t="n">
+        <v>84300357.413</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.04480826275655891</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8147799.170100003</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.01470602999827564</v>
+      </c>
+      <c r="H20" t="n">
+        <v>57191361.32380001</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.08315044783896575</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3972860.5513</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.07631887189846964</v>
+      </c>
+      <c r="L20" t="n">
+        <v>27108996.0892</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.02779605578946598</v>
       </c>
     </row>
   </sheetData>
@@ -4065,7 +4237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4768,6 +4940,49 @@
       </c>
       <c r="M19" t="n">
         <v>-0.003049021332939494</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>655915.2377999998</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.03621486849138078</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4731846.2845</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.06596266197234213</v>
+      </c>
+      <c r="F20" t="n">
+        <v>468122.4135999996</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02599909731569072</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3388715.4907</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1089227078320829</v>
+      </c>
+      <c r="J20" t="n">
+        <v>187792.8242000004</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.1627665502688909</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1343130.7938</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.0289495420610969</v>
       </c>
     </row>
   </sheetData>
@@ -4781,7 +4996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5484,6 +5699,49 @@
       </c>
       <c r="M19" t="n">
         <v>-0.3301358110640279</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3049188.866599999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.005760055849616363</v>
+      </c>
+      <c r="D20" t="n">
+        <v>21620606.0246</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.1601843707521476</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2880356.789900001</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0188179652820617</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20122432.0634</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.1444643877253412</v>
+      </c>
+      <c r="J20" t="n">
+        <v>168832.0766999999</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.2956485869742815</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1498173.9612</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.326419164282361</v>
       </c>
     </row>
   </sheetData>
@@ -5497,7 +5755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6200,6 +6458,49 @@
       </c>
       <c r="M19" t="n">
         <v>0.07028774390907988</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2352457.749400001</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.02703428045880862</v>
+      </c>
+      <c r="D20" t="n">
+        <v>17129577.5234</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1104688773715383</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2124113.667199997</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02523112266823668</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15668645.1974</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1147936285052429</v>
+      </c>
+      <c r="J20" t="n">
+        <v>228344.0821999998</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.04411668407799407</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1460932.326</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.06611103340160618</v>
       </c>
     </row>
   </sheetData>
@@ -6213,7 +6514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6916,6 +7217,49 @@
       </c>
       <c r="M19" t="n">
         <v>-0.07724073505814322</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2704837.497199999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.02388217869541043</v>
+      </c>
+      <c r="D20" t="n">
+        <v>17660131.4852</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0657141951665472</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2409257.6712</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.08395975693881397</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15283397.8529</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.09978540944268288</v>
+      </c>
+      <c r="J20" t="n">
+        <v>295579.8260000001</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.2947303833090155</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2376733.6323</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.1113224849878335</v>
       </c>
     </row>
   </sheetData>
@@ -6929,7 +7273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7632,6 +7976,49 @@
       </c>
       <c r="M19" t="n">
         <v>0.03334760519767732</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2786340.537699997</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.193792536397168</v>
+      </c>
+      <c r="D20" t="n">
+        <v>20999932.2359</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.01732457695855272</v>
+      </c>
+      <c r="F20" t="n">
+        <v>895317.3621000005</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.147196669930003</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6941496.3062</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.03444850035550673</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1891023.1756</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.2141223591524501</v>
+      </c>
+      <c r="L20" t="n">
+        <v>14058435.9297</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.0086434964357609</v>
       </c>
     </row>
   </sheetData>
@@ -12199,7 +12586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12902,6 +13289,49 @@
       </c>
       <c r="M19" t="n">
         <v>-0.04245172192636304</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7877947.975100003</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0751204891831696</v>
+      </c>
+      <c r="D20" t="n">
+        <v>51537900.0045</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.07461906266714435</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5813005.852599997</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1146547304019987</v>
+      </c>
+      <c r="H20" t="n">
+        <v>36795478.9278</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1284437213123026</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2064942.122499999</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.0224799138707521</v>
+      </c>
+      <c r="L20" t="n">
+        <v>14742421.0767</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.03970359956219227</v>
       </c>
     </row>
   </sheetData>
@@ -12915,7 +13345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13620,6 +14050,49 @@
         <v>-0.08181872222524456</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1288651.6972</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.07292555650091104</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10502381.4693</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.04479370048171738</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1112730.2829</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03976943021706325</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9728602.788700001</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.04946209765809084</v>
+      </c>
+      <c r="J20" t="n">
+        <v>175921.4143000001</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3440067506306597</v>
+      </c>
+      <c r="L20" t="n">
+        <v>773778.6806000001</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.0105452223601773</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
